--- a/data_year/zb/文化/广播节目制作播出情况.xlsx
+++ b/data_year/zb/文化/广播节目制作播出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,313 +453,193 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12660313.88</v>
+      </c>
       <c r="C2" t="n">
-        <v>4043046</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>6814226</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2549</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13057495.95</v>
+      </c>
       <c r="C3" t="n">
-        <v>4159478</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>6936959.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2587</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13383650.9666667</v>
+      </c>
       <c r="C4" t="n">
-        <v>4414043</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>7188245.06666667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2627</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13795460.52</v>
+      </c>
       <c r="C5" t="n">
-        <v>5023387</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>7391245</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2637</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14058328</v>
+      </c>
       <c r="C6" t="n">
-        <v>5267457</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>7647267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2686</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14218252.9833333</v>
+      </c>
       <c r="C7" t="n">
-        <v>6139227</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>7718163</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2782</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10780486</v>
+        <v>14565000</v>
       </c>
       <c r="C8" t="n">
-        <v>6192339</v>
+        <v>7820296</v>
       </c>
       <c r="D8" t="n">
-        <v>2365</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11272365</v>
+        <v>14918800</v>
       </c>
       <c r="C9" t="n">
-        <v>6332506</v>
+        <v>7888253.93</v>
       </c>
       <c r="D9" t="n">
-        <v>2432</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11629729.1166667</v>
+        <v>15267407</v>
       </c>
       <c r="C10" t="n">
-        <v>6494035</v>
+        <v>8017573</v>
       </c>
       <c r="D10" t="n">
-        <v>2436</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12265513.2166667</v>
+        <v>15534000</v>
       </c>
       <c r="C11" t="n">
-        <v>6716500</v>
+        <v>8018667</v>
       </c>
       <c r="D11" t="n">
-        <v>2520</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12660313.88</v>
+        <v>15807230.05</v>
       </c>
       <c r="C12" t="n">
-        <v>6814226</v>
+        <v>8210448.13</v>
       </c>
       <c r="D12" t="n">
-        <v>2549</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13057495.95</v>
+        <v>15894888.52</v>
       </c>
       <c r="C13" t="n">
-        <v>6936959.8</v>
+        <v>8127066.05</v>
       </c>
       <c r="D13" t="n">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13383650.9666667</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7188245.06666667</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>13795460.52</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7391245</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14058328</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7647267</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14218252.9833333</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7718163</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14565000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7820296</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>14918800</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7888253.93</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>15267407</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8017573</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>15534000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8018667</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15807230.05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8210448.13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2932</v>
+        <v>2941</v>
       </c>
     </row>
   </sheetData>
